--- a/Code/Results/Cases/Case_2_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_172/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9980983139050966</v>
+        <v>1.027224318692906</v>
       </c>
       <c r="D2">
-        <v>1.019284463003834</v>
+        <v>1.034947433758511</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.019096723439391</v>
+        <v>1.042025972480211</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046303331592816</v>
+        <v>1.032428291166399</v>
       </c>
       <c r="J2">
-        <v>1.020336053234441</v>
+        <v>1.032383381785719</v>
       </c>
       <c r="K2">
-        <v>1.030481516369469</v>
+        <v>1.037745445740943</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.030296270122586</v>
+        <v>1.044803824631255</v>
       </c>
       <c r="N2">
-        <v>1.021785047464215</v>
+        <v>1.033849484603898</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002657378733068</v>
+        <v>1.028169839486751</v>
       </c>
       <c r="D3">
-        <v>1.022731059238563</v>
+        <v>1.035670738606791</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.023283444404581</v>
+        <v>1.042941783818132</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047557156012491</v>
+        <v>1.032594693427095</v>
       </c>
       <c r="J3">
-        <v>1.023075862138294</v>
+        <v>1.032969017136981</v>
       </c>
       <c r="K3">
-        <v>1.033081124077735</v>
+        <v>1.038278272787041</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.033626830787188</v>
+        <v>1.045530108037946</v>
       </c>
       <c r="N3">
-        <v>1.024528747210972</v>
+        <v>1.034435951624518</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005543058956295</v>
+        <v>1.028781641315332</v>
       </c>
       <c r="D4">
-        <v>1.02491278882124</v>
+        <v>1.036138378863789</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.025937399690084</v>
+        <v>1.043534502801539</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048335285311123</v>
+        <v>1.032700419575627</v>
       </c>
       <c r="J4">
-        <v>1.024806027737067</v>
+        <v>1.033347351214813</v>
       </c>
       <c r="K4">
-        <v>1.034719556212953</v>
+        <v>1.038621993666104</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.035732545776968</v>
+        <v>1.045999561660409</v>
       </c>
       <c r="N4">
-        <v>1.026261369843347</v>
+        <v>1.034814822980136</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006741343744643</v>
+        <v>1.029038838856795</v>
       </c>
       <c r="D5">
-        <v>1.025818741077583</v>
+        <v>1.036334881010815</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.027040360997203</v>
+        <v>1.043783711194474</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048654629980543</v>
+        <v>1.032744399972488</v>
       </c>
       <c r="J5">
-        <v>1.025523484045049</v>
+        <v>1.033506255693095</v>
       </c>
       <c r="K5">
-        <v>1.03539818505085</v>
+        <v>1.038766240605842</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.036606327095677</v>
+        <v>1.046196799056294</v>
       </c>
       <c r="N5">
-        <v>1.026979845021581</v>
+        <v>1.034973953121004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006941685310071</v>
+        <v>1.029082023202357</v>
       </c>
       <c r="D6">
-        <v>1.02597020482044</v>
+        <v>1.036367869045766</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.027224817019167</v>
+        <v>1.043825556063341</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048707797628585</v>
+        <v>1.032751757076258</v>
       </c>
       <c r="J6">
-        <v>1.025643375999738</v>
+        <v>1.033532927799192</v>
       </c>
       <c r="K6">
-        <v>1.035511541733477</v>
+        <v>1.038790445417121</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.036752376864417</v>
+        <v>1.046229908959826</v>
       </c>
       <c r="N6">
-        <v>1.027099907236597</v>
+        <v>1.035000663104551</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005559128162391</v>
+        <v>1.02878507801793</v>
       </c>
       <c r="D7">
-        <v>1.024924937938692</v>
+        <v>1.036141004905418</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.02595218709339</v>
+        <v>1.043537832622633</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048339582774896</v>
+        <v>1.032701009079242</v>
       </c>
       <c r="J7">
-        <v>1.024815652944208</v>
+        <v>1.033349475083588</v>
       </c>
       <c r="K7">
-        <v>1.03472866366344</v>
+        <v>1.038623922097445</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.035744265856279</v>
+        <v>1.046002197632669</v>
       </c>
       <c r="N7">
-        <v>1.026271008719386</v>
+        <v>1.034816949865048</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9996527323674119</v>
+        <v>1.02754386418598</v>
       </c>
       <c r="D8">
-        <v>1.020459505649109</v>
+        <v>1.035191957220138</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.020523331710584</v>
+        <v>1.042335447987293</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04673403794632</v>
+        <v>1.032484930358237</v>
       </c>
       <c r="J8">
-        <v>1.021271012918019</v>
+        <v>1.032581426025236</v>
       </c>
       <c r="K8">
-        <v>1.03136929198295</v>
+        <v>1.037925734728883</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.031432296371246</v>
+        <v>1.045049378422148</v>
       </c>
       <c r="N8">
-        <v>1.022721334897785</v>
+        <v>1.034047810088937</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.988725969594113</v>
+        <v>1.025356617191275</v>
       </c>
       <c r="D9">
-        <v>1.012203008170943</v>
+        <v>1.033516712899713</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.010513888998852</v>
+        <v>1.04021772678526</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043642975461027</v>
+        <v>1.032089289102921</v>
       </c>
       <c r="J9">
-        <v>1.014683222193688</v>
+        <v>1.031223382058165</v>
       </c>
       <c r="K9">
-        <v>1.025101154729637</v>
+        <v>1.036687412816186</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.023438658093913</v>
+        <v>1.043366606904942</v>
       </c>
       <c r="N9">
-        <v>1.016124188754995</v>
+        <v>1.032687837543663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9810533921200866</v>
+        <v>1.023898447241012</v>
       </c>
       <c r="D10">
-        <v>1.006412882190173</v>
+        <v>1.032398009288751</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.003511898596602</v>
+        <v>1.038806680528128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041394523991044</v>
+        <v>1.031815562060276</v>
       </c>
       <c r="J10">
-        <v>1.010039428857306</v>
+        <v>1.030314946187584</v>
       </c>
       <c r="K10">
-        <v>1.020667307429067</v>
+        <v>1.035856526909318</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.017818032820404</v>
+        <v>1.042242281044733</v>
       </c>
       <c r="N10">
-        <v>1.011473800699425</v>
+        <v>1.031778111589946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9776294818270023</v>
+        <v>1.023267050280188</v>
       </c>
       <c r="D11">
-        <v>1.003831823772698</v>
+        <v>1.031913169380913</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.000394360064353</v>
+        <v>1.038195878740815</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040373538911283</v>
+        <v>1.031694679532572</v>
       </c>
       <c r="J11">
-        <v>1.007963449987862</v>
+        <v>1.029920864270636</v>
       </c>
       <c r="K11">
-        <v>1.018681837498734</v>
+        <v>1.035495489914027</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.015308843162283</v>
+        <v>1.04175486085167</v>
       </c>
       <c r="N11">
-        <v>1.009394873701869</v>
+        <v>1.031383470031475</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9763415347736887</v>
+        <v>1.023032521925603</v>
       </c>
       <c r="D12">
-        <v>1.002861440262064</v>
+        <v>1.031733014269335</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9992228048045511</v>
+        <v>1.037969029506766</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039986915437475</v>
+        <v>1.031649424882669</v>
       </c>
       <c r="J12">
-        <v>1.007182045131104</v>
+        <v>1.029774376774617</v>
       </c>
       <c r="K12">
-        <v>1.017934024156288</v>
+        <v>1.035361196604157</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.014364909810274</v>
+        <v>1.041573725189382</v>
       </c>
       <c r="N12">
-        <v>1.008612359160585</v>
+        <v>1.031236774506409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9766185497537668</v>
+        <v>1.02308282901828</v>
       </c>
       <c r="D13">
-        <v>1.00307012807955</v>
+        <v>1.031771661028478</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.999474732881668</v>
+        <v>1.038017688073614</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040070186092594</v>
+        <v>1.031659148145558</v>
       </c>
       <c r="J13">
-        <v>1.00735013338902</v>
+        <v>1.029805803712048</v>
       </c>
       <c r="K13">
-        <v>1.018094907616199</v>
+        <v>1.035390011472421</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.014567935341461</v>
+        <v>1.04161258328423</v>
       </c>
       <c r="N13">
-        <v>1.008780686123107</v>
+        <v>1.031268246073696</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9775233546197397</v>
+        <v>1.023247664078029</v>
       </c>
       <c r="D14">
-        <v>1.003751852890973</v>
+        <v>1.031898279001502</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.000297799827732</v>
+        <v>1.038177126699127</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040341732726197</v>
+        <v>1.031690945976859</v>
       </c>
       <c r="J14">
-        <v>1.007899071835582</v>
+        <v>1.029908757765993</v>
       </c>
       <c r="K14">
-        <v>1.018620236396182</v>
+        <v>1.03548439301908</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.015231063755935</v>
+        <v>1.041739889872043</v>
       </c>
       <c r="N14">
-        <v>1.009330404125228</v>
+        <v>1.031371346334206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9780786665521117</v>
+        <v>1.023349224493169</v>
       </c>
       <c r="D15">
-        <v>1.004170323041129</v>
+        <v>1.031976284071073</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.000803099635484</v>
+        <v>1.038275366073326</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040508054862006</v>
+        <v>1.031710490846346</v>
       </c>
       <c r="J15">
-        <v>1.008235911296231</v>
+        <v>1.029972176876959</v>
       </c>
       <c r="K15">
-        <v>1.018942526528639</v>
+        <v>1.035542519707163</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.015638043074403</v>
+        <v>1.0418183162828</v>
       </c>
       <c r="N15">
-        <v>1.009667721936547</v>
+        <v>1.031434855507584</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9812784104293033</v>
+        <v>1.023940351030315</v>
       </c>
       <c r="D16">
-        <v>1.006582574623923</v>
+        <v>1.032430177478374</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.003716936815653</v>
+        <v>1.038847221541405</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041461262827502</v>
+        <v>1.031823535029667</v>
       </c>
       <c r="J16">
-        <v>1.010175789466464</v>
+        <v>1.030341084931817</v>
       </c>
       <c r="K16">
-        <v>1.020797655556933</v>
+        <v>1.035880461319224</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.017982922092974</v>
+        <v>1.042274617389201</v>
       </c>
       <c r="N16">
-        <v>1.011610354956289</v>
+        <v>1.031804287454194</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9832577108005076</v>
+        <v>1.024311149547649</v>
       </c>
       <c r="D17">
-        <v>1.00807554841156</v>
+        <v>1.032714777514523</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.005521307230576</v>
+        <v>1.039205983176115</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042046316656407</v>
+        <v>1.031893814074367</v>
       </c>
       <c r="J17">
-        <v>1.011374829822342</v>
+        <v>1.030572298103843</v>
       </c>
       <c r="K17">
-        <v>1.021943450235888</v>
+        <v>1.036092107017611</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.019433215579086</v>
+        <v>1.042560688523296</v>
       </c>
       <c r="N17">
-        <v>1.012811098087004</v>
+        <v>1.032035828975446</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9844024602484719</v>
+        <v>1.024527430036731</v>
       </c>
       <c r="D18">
-        <v>1.00893928490543</v>
+        <v>1.032880737959202</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.006565553572625</v>
+        <v>1.039415261079052</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042383014994644</v>
+        <v>1.031934579204224</v>
       </c>
       <c r="J18">
-        <v>1.012067956001193</v>
+        <v>1.030707091009583</v>
       </c>
       <c r="K18">
-        <v>1.022605478281627</v>
+        <v>1.036215434942782</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.020271911271406</v>
+        <v>1.042727492979607</v>
       </c>
       <c r="N18">
-        <v>1.013505208584532</v>
+        <v>1.032170813302573</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9847911634487375</v>
+        <v>1.024601176075318</v>
       </c>
       <c r="D19">
-        <v>1.009232610563843</v>
+        <v>1.032937319031385</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.006920241995513</v>
+        <v>1.039486622507515</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042497055753837</v>
+        <v>1.031948440462511</v>
       </c>
       <c r="J19">
-        <v>1.012303247967685</v>
+        <v>1.030753040041268</v>
       </c>
       <c r="K19">
-        <v>1.022830158721167</v>
+        <v>1.036257465954281</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.020556674336595</v>
+        <v>1.042784359460434</v>
       </c>
       <c r="N19">
-        <v>1.013740834692605</v>
+        <v>1.032216827587152</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.983046364548207</v>
+        <v>1.024271366373161</v>
       </c>
       <c r="D20">
-        <v>1.007916103720793</v>
+        <v>1.032684246953516</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.005328569689926</v>
+        <v>1.03916748954583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041984018771848</v>
+        <v>1.031886297319587</v>
       </c>
       <c r="J20">
-        <v>1.011246834496727</v>
+        <v>1.03054749833575</v>
       </c>
       <c r="K20">
-        <v>1.021821171665059</v>
+        <v>1.036069411990714</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.019278365302134</v>
+        <v>1.042530001582685</v>
       </c>
       <c r="N20">
-        <v>1.012682920993345</v>
+        <v>1.032010993988837</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9772573655214294</v>
+        <v>1.023199124240644</v>
       </c>
       <c r="D21">
-        <v>1.003551428608643</v>
+        <v>1.031860994920946</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.00005580737905</v>
+        <v>1.038130175167754</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04026197507044</v>
+        <v>1.031681592061513</v>
       </c>
       <c r="J21">
-        <v>1.007737711512106</v>
+        <v>1.029878443336643</v>
       </c>
       <c r="K21">
-        <v>1.018465829017247</v>
+        <v>1.035456605191188</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.015036122549886</v>
+        <v>1.041702403623842</v>
       </c>
       <c r="N21">
-        <v>1.009168814651584</v>
+        <v>1.03134098885489</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9735236397821411</v>
+        <v>1.022524966737045</v>
       </c>
       <c r="D22">
-        <v>1.000739394434168</v>
+        <v>1.031343014098917</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9966617599484103</v>
+        <v>1.037478147094519</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039136389912229</v>
+        <v>1.031550840811468</v>
       </c>
       <c r="J22">
-        <v>1.005471553913572</v>
+        <v>1.029457157834987</v>
       </c>
       <c r="K22">
-        <v>1.01629621799318</v>
+        <v>1.035070221412779</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.012299639367363</v>
+        <v>1.041181562275112</v>
       </c>
       <c r="N22">
-        <v>1.006899438849328</v>
+        <v>1.030919105079499</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9755121774303666</v>
+        <v>1.022882349852725</v>
       </c>
       <c r="D23">
-        <v>1.00223673093558</v>
+        <v>1.031617640168086</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9984687294434115</v>
+        <v>1.037823782776921</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03973724074475</v>
+        <v>1.031620348159085</v>
       </c>
       <c r="J23">
-        <v>1.006678735381377</v>
+        <v>1.029680548164192</v>
       </c>
       <c r="K23">
-        <v>1.017452220132774</v>
+        <v>1.035275153581206</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.013757065836327</v>
+        <v>1.041457716973156</v>
       </c>
       <c r="N23">
-        <v>1.008108334653284</v>
+        <v>1.031142812648595</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9831418928662007</v>
+        <v>1.024289342677261</v>
       </c>
       <c r="D24">
-        <v>1.007988171782283</v>
+        <v>1.032698042529532</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.00541568481622</v>
+        <v>1.03918488310389</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042012182557071</v>
+        <v>1.031889694520319</v>
       </c>
       <c r="J24">
-        <v>1.011304689364343</v>
+        <v>1.030558704499224</v>
       </c>
       <c r="K24">
-        <v>1.021876443505832</v>
+        <v>1.036079667271709</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.019348357796023</v>
+        <v>1.042543867863303</v>
       </c>
       <c r="N24">
-        <v>1.012740858021509</v>
+        <v>1.032022216066349</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9916161619874725</v>
+        <v>1.025922076922809</v>
       </c>
       <c r="D25">
-        <v>1.014385946001647</v>
+        <v>1.033950139586246</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.013157155586486</v>
+        <v>1.040765078415478</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044474274643866</v>
+        <v>1.032193331384202</v>
       </c>
       <c r="J25">
-        <v>1.016429007809176</v>
+        <v>1.031575014195638</v>
       </c>
       <c r="K25">
-        <v>1.026764969196634</v>
+        <v>1.037008493826416</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.025554600265074</v>
+        <v>1.043802085190009</v>
       </c>
       <c r="N25">
-        <v>1.017872453586302</v>
+        <v>1.033039969039104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_172/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027224318692906</v>
+        <v>0.9980983139050974</v>
       </c>
       <c r="D2">
-        <v>1.034947433758511</v>
+        <v>1.019284463003834</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.042025972480211</v>
+        <v>1.019096723439391</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032428291166399</v>
+        <v>1.046303331592815</v>
       </c>
       <c r="J2">
-        <v>1.032383381785719</v>
+        <v>1.020336053234442</v>
       </c>
       <c r="K2">
-        <v>1.037745445740943</v>
+        <v>1.030481516369469</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.044803824631255</v>
+        <v>1.030296270122586</v>
       </c>
       <c r="N2">
-        <v>1.033849484603898</v>
+        <v>1.021785047464216</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028169839486751</v>
+        <v>1.002657378733069</v>
       </c>
       <c r="D3">
-        <v>1.035670738606791</v>
+        <v>1.022731059238563</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.042941783818132</v>
+        <v>1.023283444404582</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032594693427095</v>
+        <v>1.047557156012491</v>
       </c>
       <c r="J3">
-        <v>1.032969017136981</v>
+        <v>1.023075862138295</v>
       </c>
       <c r="K3">
-        <v>1.038278272787041</v>
+        <v>1.033081124077735</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.045530108037946</v>
+        <v>1.033626830787188</v>
       </c>
       <c r="N3">
-        <v>1.034435951624518</v>
+        <v>1.024528747210973</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028781641315332</v>
+        <v>1.005543058956295</v>
       </c>
       <c r="D4">
-        <v>1.036138378863789</v>
+        <v>1.024912788821239</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.043534502801539</v>
+        <v>1.025937399690083</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032700419575627</v>
+        <v>1.048335285311123</v>
       </c>
       <c r="J4">
-        <v>1.033347351214813</v>
+        <v>1.024806027737067</v>
       </c>
       <c r="K4">
-        <v>1.038621993666104</v>
+        <v>1.034719556212953</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.045999561660409</v>
+        <v>1.035732545776967</v>
       </c>
       <c r="N4">
-        <v>1.034814822980136</v>
+        <v>1.026261369843347</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029038838856795</v>
+        <v>1.006741343744643</v>
       </c>
       <c r="D5">
-        <v>1.036334881010815</v>
+        <v>1.025818741077583</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.043783711194474</v>
+        <v>1.027040360997203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032744399972488</v>
+        <v>1.048654629980544</v>
       </c>
       <c r="J5">
-        <v>1.033506255693095</v>
+        <v>1.02552348404505</v>
       </c>
       <c r="K5">
-        <v>1.038766240605842</v>
+        <v>1.03539818505085</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.046196799056294</v>
+        <v>1.036606327095678</v>
       </c>
       <c r="N5">
-        <v>1.034973953121004</v>
+        <v>1.026979845021581</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029082023202357</v>
+        <v>1.006941685310071</v>
       </c>
       <c r="D6">
-        <v>1.036367869045766</v>
+        <v>1.02597020482044</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.043825556063341</v>
+        <v>1.027224817019168</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032751757076258</v>
+        <v>1.048707797628586</v>
       </c>
       <c r="J6">
-        <v>1.033532927799192</v>
+        <v>1.025643375999739</v>
       </c>
       <c r="K6">
-        <v>1.038790445417121</v>
+        <v>1.035511541733477</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.046229908959826</v>
+        <v>1.036752376864417</v>
       </c>
       <c r="N6">
-        <v>1.035000663104551</v>
+        <v>1.027099907236598</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02878507801793</v>
+        <v>1.005559128162391</v>
       </c>
       <c r="D7">
-        <v>1.036141004905418</v>
+        <v>1.024924937938691</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.043537832622633</v>
+        <v>1.02595218709339</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032701009079242</v>
+        <v>1.048339582774896</v>
       </c>
       <c r="J7">
-        <v>1.033349475083588</v>
+        <v>1.024815652944208</v>
       </c>
       <c r="K7">
-        <v>1.038623922097445</v>
+        <v>1.03472866366344</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.046002197632669</v>
+        <v>1.035744265856279</v>
       </c>
       <c r="N7">
-        <v>1.034816949865048</v>
+        <v>1.026271008719387</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02754386418598</v>
+        <v>0.9996527323674116</v>
       </c>
       <c r="D8">
-        <v>1.035191957220138</v>
+        <v>1.020459505649108</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.042335447987293</v>
+        <v>1.020523331710584</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032484930358237</v>
+        <v>1.04673403794632</v>
       </c>
       <c r="J8">
-        <v>1.032581426025236</v>
+        <v>1.021271012918019</v>
       </c>
       <c r="K8">
-        <v>1.037925734728883</v>
+        <v>1.03136929198295</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.045049378422148</v>
+        <v>1.031432296371246</v>
       </c>
       <c r="N8">
-        <v>1.034047810088937</v>
+        <v>1.022721334897785</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025356617191275</v>
+        <v>0.9887259695941133</v>
       </c>
       <c r="D9">
-        <v>1.033516712899713</v>
+        <v>1.012203008170943</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.04021772678526</v>
+        <v>1.010513888998852</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032089289102921</v>
+        <v>1.043642975461027</v>
       </c>
       <c r="J9">
-        <v>1.031223382058165</v>
+        <v>1.014683222193688</v>
       </c>
       <c r="K9">
-        <v>1.036687412816186</v>
+        <v>1.025101154729637</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.043366606904942</v>
+        <v>1.023438658093914</v>
       </c>
       <c r="N9">
-        <v>1.032687837543663</v>
+        <v>1.016124188754995</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023898447241012</v>
+        <v>0.9810533921200865</v>
       </c>
       <c r="D10">
-        <v>1.032398009288751</v>
+        <v>1.006412882190174</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.038806680528128</v>
+        <v>1.003511898596603</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031815562060276</v>
+        <v>1.041394523991044</v>
       </c>
       <c r="J10">
-        <v>1.030314946187584</v>
+        <v>1.010039428857306</v>
       </c>
       <c r="K10">
-        <v>1.035856526909318</v>
+        <v>1.020667307429067</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.042242281044733</v>
+        <v>1.017818032820404</v>
       </c>
       <c r="N10">
-        <v>1.031778111589946</v>
+        <v>1.011473800699425</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023267050280188</v>
+        <v>0.9776294818270018</v>
       </c>
       <c r="D11">
-        <v>1.031913169380913</v>
+        <v>1.003831823772698</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.038195878740815</v>
+        <v>1.000394360064353</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031694679532572</v>
+        <v>1.040373538911282</v>
       </c>
       <c r="J11">
-        <v>1.029920864270636</v>
+        <v>1.007963449987862</v>
       </c>
       <c r="K11">
-        <v>1.035495489914027</v>
+        <v>1.018681837498733</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.04175486085167</v>
+        <v>1.015308843162283</v>
       </c>
       <c r="N11">
-        <v>1.031383470031475</v>
+        <v>1.009394873701869</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023032521925603</v>
+        <v>0.9763415347736898</v>
       </c>
       <c r="D12">
-        <v>1.031733014269335</v>
+        <v>1.002861440262065</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.037969029506766</v>
+        <v>0.9992228048045522</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031649424882669</v>
+        <v>1.039986915437475</v>
       </c>
       <c r="J12">
-        <v>1.029774376774617</v>
+        <v>1.007182045131105</v>
       </c>
       <c r="K12">
-        <v>1.035361196604157</v>
+        <v>1.017934024156289</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.041573725189382</v>
+        <v>1.014364909810276</v>
       </c>
       <c r="N12">
-        <v>1.031236774506409</v>
+        <v>1.008612359160586</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02308282901828</v>
+        <v>0.9766185497537666</v>
       </c>
       <c r="D13">
-        <v>1.031771661028478</v>
+        <v>1.003070128079549</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.038017688073614</v>
+        <v>0.9994747328816679</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031659148145558</v>
+        <v>1.040070186092594</v>
       </c>
       <c r="J13">
-        <v>1.029805803712048</v>
+        <v>1.00735013338902</v>
       </c>
       <c r="K13">
-        <v>1.035390011472421</v>
+        <v>1.018094907616198</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.04161258328423</v>
+        <v>1.014567935341461</v>
       </c>
       <c r="N13">
-        <v>1.031268246073696</v>
+        <v>1.008780686123107</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023247664078029</v>
+        <v>0.9775233546197398</v>
       </c>
       <c r="D14">
-        <v>1.031898279001502</v>
+        <v>1.003751852890973</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.038177126699127</v>
+        <v>1.000297799827732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031690945976859</v>
+        <v>1.040341732726197</v>
       </c>
       <c r="J14">
-        <v>1.029908757765993</v>
+        <v>1.007899071835582</v>
       </c>
       <c r="K14">
-        <v>1.03548439301908</v>
+        <v>1.018620236396182</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.041739889872043</v>
+        <v>1.015231063755935</v>
       </c>
       <c r="N14">
-        <v>1.031371346334206</v>
+        <v>1.009330404125228</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023349224493169</v>
+        <v>0.9780786665521107</v>
       </c>
       <c r="D15">
-        <v>1.031976284071073</v>
+        <v>1.004170323041127</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.038275366073326</v>
+        <v>1.000803099635483</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031710490846346</v>
+        <v>1.040508054862006</v>
       </c>
       <c r="J15">
-        <v>1.029972176876959</v>
+        <v>1.00823591129623</v>
       </c>
       <c r="K15">
-        <v>1.035542519707163</v>
+        <v>1.018942526528639</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.0418183162828</v>
+        <v>1.015638043074402</v>
       </c>
       <c r="N15">
-        <v>1.031434855507584</v>
+        <v>1.009667721936546</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023940351030315</v>
+        <v>0.9812784104293027</v>
       </c>
       <c r="D16">
-        <v>1.032430177478374</v>
+        <v>1.006582574623923</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.038847221541405</v>
+        <v>1.003716936815653</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031823535029667</v>
+        <v>1.041461262827502</v>
       </c>
       <c r="J16">
-        <v>1.030341084931817</v>
+        <v>1.010175789466464</v>
       </c>
       <c r="K16">
-        <v>1.035880461319224</v>
+        <v>1.020797655556933</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.042274617389201</v>
+        <v>1.017982922092973</v>
       </c>
       <c r="N16">
-        <v>1.031804287454194</v>
+        <v>1.011610354956289</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024311149547649</v>
+        <v>0.9832577108005088</v>
       </c>
       <c r="D17">
-        <v>1.032714777514523</v>
+        <v>1.008075548411561</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.039205983176115</v>
+        <v>1.005521307230577</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031893814074367</v>
+        <v>1.042046316656408</v>
       </c>
       <c r="J17">
-        <v>1.030572298103843</v>
+        <v>1.011374829822343</v>
       </c>
       <c r="K17">
-        <v>1.036092107017611</v>
+        <v>1.02194345023589</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.042560688523296</v>
+        <v>1.019433215579086</v>
       </c>
       <c r="N17">
-        <v>1.032035828975446</v>
+        <v>1.012811098087004</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024527430036731</v>
+        <v>0.9844024602484711</v>
       </c>
       <c r="D18">
-        <v>1.032880737959202</v>
+        <v>1.008939284905429</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.039415261079052</v>
+        <v>1.006565553572624</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031934579204224</v>
+        <v>1.042383014994643</v>
       </c>
       <c r="J18">
-        <v>1.030707091009583</v>
+        <v>1.012067956001193</v>
       </c>
       <c r="K18">
-        <v>1.036215434942782</v>
+        <v>1.022605478281626</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.042727492979607</v>
+        <v>1.020271911271404</v>
       </c>
       <c r="N18">
-        <v>1.032170813302573</v>
+        <v>1.013505208584532</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024601176075318</v>
+        <v>0.9847911634487366</v>
       </c>
       <c r="D19">
-        <v>1.032937319031385</v>
+        <v>1.009232610563842</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.039486622507515</v>
+        <v>1.006920241995513</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031948440462511</v>
+        <v>1.042497055753836</v>
       </c>
       <c r="J19">
-        <v>1.030753040041268</v>
+        <v>1.012303247967684</v>
       </c>
       <c r="K19">
-        <v>1.036257465954281</v>
+        <v>1.022830158721167</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.042784359460434</v>
+        <v>1.020556674336594</v>
       </c>
       <c r="N19">
-        <v>1.032216827587152</v>
+        <v>1.013740834692604</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024271366373161</v>
+        <v>0.983046364548207</v>
       </c>
       <c r="D20">
-        <v>1.032684246953516</v>
+        <v>1.007916103720794</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.03916748954583</v>
+        <v>1.005328569689927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031886297319587</v>
+        <v>1.041984018771848</v>
       </c>
       <c r="J20">
-        <v>1.03054749833575</v>
+        <v>1.011246834496727</v>
       </c>
       <c r="K20">
-        <v>1.036069411990714</v>
+        <v>1.021821171665059</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.042530001582685</v>
+        <v>1.019278365302134</v>
       </c>
       <c r="N20">
-        <v>1.032010993988837</v>
+        <v>1.012682920993345</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023199124240644</v>
+        <v>0.9772573655214307</v>
       </c>
       <c r="D21">
-        <v>1.031860994920946</v>
+        <v>1.003551428608644</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.038130175167754</v>
+        <v>1.000055807379051</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031681592061513</v>
+        <v>1.040261975070441</v>
       </c>
       <c r="J21">
-        <v>1.029878443336643</v>
+        <v>1.007737711512107</v>
       </c>
       <c r="K21">
-        <v>1.035456605191188</v>
+        <v>1.018465829017248</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.041702403623842</v>
+        <v>1.015036122549887</v>
       </c>
       <c r="N21">
-        <v>1.03134098885489</v>
+        <v>1.009168814651586</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022524966737045</v>
+        <v>0.9735236397821411</v>
       </c>
       <c r="D22">
-        <v>1.031343014098917</v>
+        <v>1.000739394434168</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.037478147094519</v>
+        <v>0.99666175994841</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031550840811468</v>
+        <v>1.039136389912229</v>
       </c>
       <c r="J22">
-        <v>1.029457157834987</v>
+        <v>1.005471553913572</v>
       </c>
       <c r="K22">
-        <v>1.035070221412779</v>
+        <v>1.01629621799318</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.041181562275112</v>
+        <v>1.012299639367363</v>
       </c>
       <c r="N22">
-        <v>1.030919105079499</v>
+        <v>1.006899438849328</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022882349852725</v>
+        <v>0.9755121774303669</v>
       </c>
       <c r="D23">
-        <v>1.031617640168086</v>
+        <v>1.00223673093558</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.037823782776921</v>
+        <v>0.9984687294434114</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031620348159085</v>
+        <v>1.03973724074475</v>
       </c>
       <c r="J23">
-        <v>1.029680548164192</v>
+        <v>1.006678735381378</v>
       </c>
       <c r="K23">
-        <v>1.035275153581206</v>
+        <v>1.017452220132774</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.041457716973156</v>
+        <v>1.013757065836327</v>
       </c>
       <c r="N23">
-        <v>1.031142812648595</v>
+        <v>1.008108334653284</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024289342677261</v>
+        <v>0.9831418928662011</v>
       </c>
       <c r="D24">
-        <v>1.032698042529532</v>
+        <v>1.007988171782283</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.03918488310389</v>
+        <v>1.00541568481622</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031889694520319</v>
+        <v>1.042012182557071</v>
       </c>
       <c r="J24">
-        <v>1.030558704499224</v>
+        <v>1.011304689364343</v>
       </c>
       <c r="K24">
-        <v>1.036079667271709</v>
+        <v>1.021876443505832</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.042543867863303</v>
+        <v>1.019348357796024</v>
       </c>
       <c r="N24">
-        <v>1.032022216066349</v>
+        <v>1.01274085802151</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025922076922809</v>
+        <v>0.9916161619874718</v>
       </c>
       <c r="D25">
-        <v>1.033950139586246</v>
+        <v>1.014385946001647</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.040765078415478</v>
+        <v>1.013157155586485</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032193331384202</v>
+        <v>1.044474274643866</v>
       </c>
       <c r="J25">
-        <v>1.031575014195638</v>
+        <v>1.016429007809176</v>
       </c>
       <c r="K25">
-        <v>1.037008493826416</v>
+        <v>1.026764969196634</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.043802085190009</v>
+        <v>1.025554600265073</v>
       </c>
       <c r="N25">
-        <v>1.033039969039104</v>
+        <v>1.017872453586301</v>
       </c>
     </row>
   </sheetData>
